--- a/lms/lmsfrontend/public/static/excels/sample-upload-user_v2.xlsx
+++ b/lms/lmsfrontend/public/static/excels/sample-upload-user_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiend\OneDrive\Documents\GR\openerp-micro-service\lms\lmsfrontend\public\static\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E6A69-1CBF-41DF-AFB6-BB06B39ECC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8791E2-AA82-4578-95AB-B0E8D5120C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4997FDAE-1009-4185-8539-3E77536A8C0F}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -224,7 +224,7 @@
     <t>tien.duy2912@gmail.com</t>
   </si>
   <si>
-    <t>`</t>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
@@ -344,7 +344,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -363,10 +363,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,7 +665,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,6 +773,30 @@
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -820,9 +840,6 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -841,10 +858,11 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{A264629E-2E55-4A57-BFF2-BB0B68CCEFD1}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{3D6BDD2D-87B2-4107-9E6F-95A95E21BA05}"/>
     <hyperlink ref="A2" r:id="rId3" display="tienduy2912@gmail.com" xr:uid="{D65E00BE-7236-4C72-AFFE-FBFFB554B1FE}"/>
+    <hyperlink ref="A5" r:id="rId4" display="tienduy2912@gmail.com" xr:uid="{132510BD-2F9E-4535-943C-104AADAE46D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -852,7 +870,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H4</xm:sqref>
+          <xm:sqref>H2:H5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/lms/lmsfrontend/public/static/excels/sample-upload-user_v2.xlsx
+++ b/lms/lmsfrontend/public/static/excels/sample-upload-user_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiend\OneDrive\Documents\GR\openerp-micro-service\lms\lmsfrontend\public\static\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8791E2-AA82-4578-95AB-B0E8D5120C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8481746-AFB1-4B1D-ABD5-BAA41CEB9117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4997FDAE-1009-4185-8539-3E77536A8C0F}"/>
   </bookViews>
@@ -46,7 +46,7 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -56,7 +56,7 @@
         <r>
           <rPr>
             <i/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -65,7 +65,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -75,7 +75,7 @@
         <r>
           <rPr>
             <i/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -84,7 +84,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -94,7 +94,7 @@
         <r>
           <rPr>
             <i/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -108,22 +108,22 @@
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Tien Nguyen:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Default:
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>soict1234</t>
         </r>
       </text>
     </comment>
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D1C24A8A-75FB-490B-9B52-2652ED36FA8C}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D1C24A8A-75FB-490B-9B52-2652ED36FA8C}">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Username</t>
   </si>
@@ -173,18 +173,9 @@
     <t>Password</t>
   </si>
   <si>
-    <t>test1.ac</t>
-  </si>
-  <si>
-    <t>test1.ac@sis.hust.edu.vn</t>
-  </si>
-  <si>
     <t>Email*</t>
   </si>
   <si>
-    <t>test99.ac@sis.hust.edu.vn</t>
-  </si>
-  <si>
     <t>Enabled</t>
   </si>
   <si>
@@ -203,41 +194,99 @@
     <t>TEACHER</t>
   </si>
   <si>
-    <t>Created At</t>
-  </si>
-  <si>
-    <t>tiennd_test0001</t>
-  </si>
-  <si>
-    <t>Nguyen</t>
-  </si>
-  <si>
-    <t>Tien</t>
-  </si>
-  <si>
-    <t>$2a$10$i1jdxUoi/31967a3DXBLJ.bXhMOqMXinLiQCrwFiUS1X6msPAnjau</t>
-  </si>
-  <si>
-    <t>2021-06-02 15:27:28</t>
-  </si>
-  <si>
-    <t>tien.duy2912@gmail.com</t>
-  </si>
-  <si>
-    <t>abcd</t>
+    <t>trinh</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>Hai</t>
+  </si>
+  <si>
+    <t>soict1234</t>
+  </si>
+  <si>
+    <t>sinhvien.bk@email.edu</t>
+  </si>
+  <si>
+    <t>Van Hust</t>
+  </si>
+  <si>
+    <t>tranvan.hust</t>
+  </si>
+  <si>
+    <t>tranvan.hust@gmail.com</t>
+  </si>
+  <si>
+    <t>student.soict1234@sis.hust.edu.vn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -246,49 +295,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -300,12 +306,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -324,35 +330,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -662,207 +696,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D5D7AF-6CB9-4064-9D14-0A783BCC507A}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="18.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="G2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11">
+        <v>20001234</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6">
-        <v>123456</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{A264629E-2E55-4A57-BFF2-BB0B68CCEFD1}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{3D6BDD2D-87B2-4107-9E6F-95A95E21BA05}"/>
-    <hyperlink ref="A2" r:id="rId3" display="tienduy2912@gmail.com" xr:uid="{D65E00BE-7236-4C72-AFFE-FBFFB554B1FE}"/>
-    <hyperlink ref="A5" r:id="rId4" display="tienduy2912@gmail.com" xr:uid="{132510BD-2F9E-4535-943C-104AADAE46D8}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DCE6B116-AAEB-4355-8576-449394E02EFC}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{9D57B18B-8969-45B7-B6B4-9BC230542F9B}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{ECFE3C5E-5C0E-4EAD-AB4D-EF5C5A57060D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -870,7 +837,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H5</xm:sqref>
+          <xm:sqref>G2:G4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -888,19 +855,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>11</v>
+    <row r="1" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
